--- a/ipv4list.xlsx
+++ b/ipv4list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t xml:space="preserve"> 172.64.152.0</t>
   </si>
@@ -46,6 +46,15 @@
     <t>104.17.160.0</t>
   </si>
   <si>
+    <t>66.235.200.58</t>
+  </si>
+  <si>
+    <t>104.24.x.x</t>
+  </si>
+  <si>
+    <t>左边都是移动ip</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 172.64.152.1</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>104.17.160.1</t>
   </si>
   <si>
+    <t>下边是电信ip</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 172.64.152.2</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>104.17.160.2</t>
   </si>
   <si>
+    <t>172.64.229.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 172.64.152.3</t>
   </si>
   <si>
@@ -136,6 +151,9 @@
     <t>104.17.160.3</t>
   </si>
   <si>
+    <t>172.64.229.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 172.64.152.4</t>
   </si>
   <si>
@@ -166,6 +184,9 @@
     <t>104.17.160.4</t>
   </si>
   <si>
+    <t>172.64.229.2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 172.64.152.5</t>
   </si>
   <si>
@@ -196,6 +217,42 @@
     <t>104.17.160.5</t>
   </si>
   <si>
+    <t>172.64.229.3</t>
+  </si>
+  <si>
+    <t>172.64.229.4</t>
+  </si>
+  <si>
+    <t>172.64.229.5</t>
+  </si>
+  <si>
+    <t>172.64.229.6</t>
+  </si>
+  <si>
+    <t>172.64.229.7</t>
+  </si>
+  <si>
+    <t>172.64.229.8</t>
+  </si>
+  <si>
+    <t>172.64.229.9</t>
+  </si>
+  <si>
+    <t>172.64.229.10</t>
+  </si>
+  <si>
+    <t>172.64.229.11</t>
+  </si>
+  <si>
+    <t>172.64.229.12</t>
+  </si>
+  <si>
+    <t>172.64.229.13</t>
+  </si>
+  <si>
+    <t>172.64.229.14</t>
+  </si>
+  <si>
     <t>104.18.46.0</t>
   </si>
   <si>
@@ -224,6 +281,15 @@
   </si>
   <si>
     <t>104.17.144.0</t>
+  </si>
+  <si>
+    <t>108.162.192.0</t>
+  </si>
+  <si>
+    <t>23.227.60.0</t>
+  </si>
+  <si>
+    <t>172.64.229.15</t>
   </si>
   <si>
     <t>104.18.46.1</t>
@@ -381,10 +447,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -402,8 +468,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +491,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,13 +508,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,14 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -502,7 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,7 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,9 +576,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,13 +620,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,13 +668,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,145 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,8 +826,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,26 +851,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -839,6 +885,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,7 +913,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -859,16 +925,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,115 +943,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,18 +1378,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J23"/>
+      <selection activeCell="M3" sqref="M3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="20" width="13.7777777777778" customWidth="1"/>
+    <col min="1" max="12" width="13.7777777777778" customWidth="1"/>
+    <col min="13" max="13" width="17.1111111111111" customWidth="1"/>
+    <col min="14" max="20" width="13.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1354,357 +1422,478 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:10">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:10">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="13:14">
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="13:14">
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="13:14">
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="13:14">
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="13:13">
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="13:13">
+      <c r="M12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="13:14">
+      <c r="M13" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="13:14">
+      <c r="M14" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="13:14">
+      <c r="M15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="13:14">
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="13:14">
+      <c r="M17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:14">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18">
+        <v>149</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I22" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
